--- a/TestData/AmortTemplateE!.xlsx
+++ b/TestData/AmortTemplateE!.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AmortTemplateGrid" sheetId="1" r:id="rId1"/>
     <sheet name="AmortTemplateSectionGrid" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AmortTemplateGrid!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AmortTemplateGrid!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AmortTemplateSectionGrid!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="46">
   <si>
     <t>N</t>
   </si>
@@ -91,19 +91,10 @@
     <t>Acquired Series</t>
   </si>
   <si>
-    <t>Original Series</t>
+    <t>Style Specials</t>
   </si>
   <si>
-    <t>THS</t>
-  </si>
-  <si>
-    <t>Bio/Clip (E)</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>Original Series</t>
   </si>
   <si>
     <t>Acquired Movies</t>
@@ -127,6 +118,9 @@
     <t>Acquired Specials</t>
   </si>
   <si>
+    <t>Bio/Clip (E)</t>
+  </si>
+  <si>
     <t>Concert</t>
   </si>
   <si>
@@ -142,19 +136,37 @@
     <t>Original Reality</t>
   </si>
   <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Topicals</t>
+  </si>
+  <si>
     <t>Reality - S1</t>
+  </si>
+  <si>
+    <t>Style Format</t>
+  </si>
+  <si>
+    <t>Acquired Link Series</t>
+  </si>
+  <si>
+    <t>Manual Acquired Movies</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>THS</t>
   </si>
   <si>
     <t>E! Specials</t>
   </si>
   <si>
     <t>Bio/Clip</t>
-  </si>
-  <si>
-    <t>Acquired Link Series</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
@@ -196,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,22 +543,22 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -564,29 +577,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+      <c r="A3" s="2">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -597,21 +610,22 @@
       <c r="K3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +663,13 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -669,13 +683,13 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -689,13 +703,13 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -709,13 +723,13 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -729,13 +743,13 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -749,13 +763,13 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -769,13 +783,13 @@
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -789,13 +803,13 @@
         <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -809,13 +823,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -829,13 +843,13 @@
         <v>136</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -849,13 +863,13 @@
         <v>136</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -869,13 +883,13 @@
         <v>136</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -889,13 +903,13 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -909,13 +923,13 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -929,13 +943,13 @@
         <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -949,13 +963,13 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -969,13 +983,13 @@
         <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -989,13 +1003,13 @@
         <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1009,13 +1023,13 @@
         <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1029,13 +1043,13 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1049,13 +1063,13 @@
         <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1069,13 +1083,13 @@
         <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1089,13 +1103,13 @@
         <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1109,13 +1123,13 @@
         <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1129,13 +1143,13 @@
         <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1149,13 +1163,13 @@
         <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1169,13 +1183,13 @@
         <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1189,13 +1203,13 @@
         <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1212,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -1232,7 +1246,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -1252,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -1272,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -1292,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1312,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -1332,7 +1346,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -1352,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1372,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -1392,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1412,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -1432,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -1452,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -1472,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -1492,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -1512,7 +1526,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -1612,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -1632,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -1652,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -1672,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -1692,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -1712,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -1732,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -1752,7 +1766,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -1772,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -1792,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -1812,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -1832,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -2089,13 +2103,13 @@
         <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2109,13 +2123,13 @@
         <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2129,13 +2143,13 @@
         <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2149,13 +2163,13 @@
         <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -2169,13 +2183,13 @@
         <v>138</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2189,13 +2203,13 @@
         <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2209,13 +2223,13 @@
         <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2229,13 +2243,13 @@
         <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2249,13 +2263,13 @@
         <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2269,13 +2283,13 @@
         <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2289,13 +2303,13 @@
         <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -2309,13 +2323,13 @@
         <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2329,13 +2343,13 @@
         <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2349,13 +2363,13 @@
         <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2369,13 +2383,13 @@
         <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -2389,13 +2403,13 @@
         <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2409,13 +2423,13 @@
         <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2429,13 +2443,13 @@
         <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2449,13 +2463,13 @@
         <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -2469,13 +2483,13 @@
         <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2489,13 +2503,13 @@
         <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2509,13 +2523,13 @@
         <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -2529,13 +2543,13 @@
         <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2549,13 +2563,13 @@
         <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2569,13 +2583,13 @@
         <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2589,13 +2603,13 @@
         <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2609,13 +2623,13 @@
         <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2629,13 +2643,13 @@
         <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2649,13 +2663,13 @@
         <v>146</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2669,13 +2683,13 @@
         <v>146</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2689,13 +2703,13 @@
         <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2709,13 +2723,13 @@
         <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2729,13 +2743,13 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2749,13 +2763,13 @@
         <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -2769,13 +2783,13 @@
         <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2789,13 +2803,13 @@
         <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -2812,10 +2826,10 @@
         <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2832,10 +2846,10 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -2852,10 +2866,10 @@
         <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2872,10 +2886,10 @@
         <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -2889,13 +2903,13 @@
         <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2909,13 +2923,13 @@
         <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -2929,13 +2943,13 @@
         <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -2949,13 +2963,13 @@
         <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -2969,13 +2983,13 @@
         <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -2989,13 +3003,13 @@
         <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3009,13 +3023,13 @@
         <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3029,13 +3043,13 @@
         <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -3049,13 +3063,13 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -3069,13 +3083,13 @@
         <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -3089,13 +3103,13 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3109,13 +3123,13 @@
         <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3129,13 +3143,13 @@
         <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -3149,13 +3163,13 @@
         <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -3169,13 +3183,13 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -3189,13 +3203,13 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3209,13 +3223,13 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -3229,13 +3243,13 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -3249,13 +3263,13 @@
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E132">
         <v>4</v>
@@ -3269,13 +3283,13 @@
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -3289,13 +3303,13 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3309,13 +3323,13 @@
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3329,13 +3343,13 @@
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -3349,13 +3363,13 @@
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -3369,13 +3383,13 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -3389,13 +3403,13 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3409,13 +3423,13 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -3429,13 +3443,13 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -3449,13 +3463,13 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E142">
         <v>4</v>
@@ -3469,13 +3483,13 @@
         <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -3489,13 +3503,13 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -3509,13 +3523,13 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -3529,13 +3543,13 @@
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -3549,13 +3563,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3569,13 +3583,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E148">
         <v>5</v>
@@ -3589,10 +3603,10 @@
         <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
@@ -3609,10 +3623,10 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -3629,10 +3643,10 @@
         <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
         <v>19</v>
@@ -3649,10 +3663,10 @@
         <v>169</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -3669,10 +3683,10 @@
         <v>169</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -3689,10 +3703,10 @@
         <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -3709,10 +3723,10 @@
         <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
@@ -3729,10 +3743,10 @@
         <v>169</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -3749,10 +3763,10 @@
         <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -3769,10 +3783,10 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -3789,10 +3803,10 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -3809,10 +3823,10 @@
         <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -3829,10 +3843,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -3849,10 +3863,10 @@
         <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -3869,10 +3883,10 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
         <v>19</v>
@@ -3889,10 +3903,10 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
@@ -3909,7 +3923,7 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -3929,7 +3943,7 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
@@ -3949,7 +3963,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -3969,7 +3983,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -3989,10 +4003,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
         <v>19</v>
@@ -4009,10 +4023,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -4029,10 +4043,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D171" t="s">
         <v>19</v>
@@ -4049,10 +4063,10 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -4069,10 +4083,10 @@
         <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -4089,10 +4103,10 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -4109,10 +4123,10 @@
         <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -4129,10 +4143,10 @@
         <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -4149,10 +4163,10 @@
         <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
         <v>19</v>
@@ -4169,10 +4183,10 @@
         <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -4189,10 +4203,10 @@
         <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -4209,10 +4223,10 @@
         <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
         <v>19</v>
@@ -4229,7 +4243,7 @@
         <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -4249,7 +4263,7 @@
         <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4269,7 +4283,7 @@
         <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>1</v>
@@ -4289,7 +4303,7 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -4309,7 +4323,7 @@
         <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -4329,7 +4343,7 @@
         <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -4349,7 +4363,7 @@
         <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -4369,7 +4383,7 @@
         <v>169</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -4389,7 +4403,7 @@
         <v>169</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
         <v>17</v>
@@ -4409,7 +4423,7 @@
         <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
@@ -4429,7 +4443,7 @@
         <v>169</v>
       </c>
       <c r="B191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
@@ -4449,7 +4463,7 @@
         <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -4462,6 +4476,2646 @@
       </c>
       <c r="F192">
         <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>155</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>155</v>
+      </c>
+      <c r="B194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>155</v>
+      </c>
+      <c r="B195" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>155</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>155</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>155</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>155</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>155</v>
+      </c>
+      <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>155</v>
+      </c>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>155</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>155</v>
+      </c>
+      <c r="B203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>156</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>156</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>156</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>156</v>
+      </c>
+      <c r="B207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>156</v>
+      </c>
+      <c r="B208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>156</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>156</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>156</v>
+      </c>
+      <c r="B211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>157</v>
+      </c>
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>157</v>
+      </c>
+      <c r="B213" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" t="s">
+        <v>21</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>157</v>
+      </c>
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" t="s">
+        <v>29</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>157</v>
+      </c>
+      <c r="B215" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" t="s">
+        <v>21</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>157</v>
+      </c>
+      <c r="B216" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216" t="s">
+        <v>21</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>157</v>
+      </c>
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>157</v>
+      </c>
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" t="s">
+        <v>30</v>
+      </c>
+      <c r="D218" t="s">
+        <v>21</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>157</v>
+      </c>
+      <c r="B219" t="s">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219" t="s">
+        <v>21</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>157</v>
+      </c>
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" t="s">
+        <v>21</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>157</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" t="s">
+        <v>21</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>157</v>
+      </c>
+      <c r="B222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>157</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>21</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>157</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>21</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>157</v>
+      </c>
+      <c r="B225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>157</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>157</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>157</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>157</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229">
+        <v>3</v>
+      </c>
+      <c r="F229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>157</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" t="s">
+        <v>21</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>157</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" t="s">
+        <v>21</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>157</v>
+      </c>
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>157</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>31</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>157</v>
+      </c>
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>157</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" t="s">
+        <v>21</v>
+      </c>
+      <c r="E235">
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>157</v>
+      </c>
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" t="s">
+        <v>21</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>157</v>
+      </c>
+      <c r="B237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" t="s">
+        <v>21</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>157</v>
+      </c>
+      <c r="B238" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" t="s">
+        <v>21</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>157</v>
+      </c>
+      <c r="B239" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" t="s">
+        <v>21</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>157</v>
+      </c>
+      <c r="B240" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" t="s">
+        <v>21</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>157</v>
+      </c>
+      <c r="B241" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>157</v>
+      </c>
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>157</v>
+      </c>
+      <c r="B243" t="s">
+        <v>38</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>157</v>
+      </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s">
+        <v>26</v>
+      </c>
+      <c r="D244" t="s">
+        <v>21</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>157</v>
+      </c>
+      <c r="B245" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" t="s">
+        <v>21</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>157</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" t="s">
+        <v>21</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>157</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" t="s">
+        <v>21</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>157</v>
+      </c>
+      <c r="B248" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" t="s">
+        <v>21</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>157</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" t="s">
+        <v>21</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>157</v>
+      </c>
+      <c r="B250" t="s">
+        <v>38</v>
+      </c>
+      <c r="C250" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" t="s">
+        <v>21</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+      <c r="F250">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>157</v>
+      </c>
+      <c r="B251" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>157</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>157</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
+      </c>
+      <c r="C253" t="s">
+        <v>35</v>
+      </c>
+      <c r="D253" t="s">
+        <v>21</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>157</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>157</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255">
+        <v>4</v>
+      </c>
+      <c r="F255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>157</v>
+      </c>
+      <c r="B256" t="s">
+        <v>38</v>
+      </c>
+      <c r="C256" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256" t="s">
+        <v>21</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>157</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>157</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>21</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>157</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>157</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>21</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>157</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>21</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>157</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>157</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>157</v>
+      </c>
+      <c r="B264" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>157</v>
+      </c>
+      <c r="B265" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>157</v>
+      </c>
+      <c r="B266" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>157</v>
+      </c>
+      <c r="B267" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>157</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>21</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>157</v>
+      </c>
+      <c r="B269" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" t="s">
+        <v>21</v>
+      </c>
+      <c r="E269">
+        <v>3</v>
+      </c>
+      <c r="F269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>157</v>
+      </c>
+      <c r="B270" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270" t="s">
+        <v>21</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>157</v>
+      </c>
+      <c r="B271" t="s">
+        <v>38</v>
+      </c>
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>21</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>157</v>
+      </c>
+      <c r="B272" t="s">
+        <v>38</v>
+      </c>
+      <c r="C272" t="s">
+        <v>36</v>
+      </c>
+      <c r="D272" t="s">
+        <v>21</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>157</v>
+      </c>
+      <c r="B273" t="s">
+        <v>38</v>
+      </c>
+      <c r="C273" t="s">
+        <v>36</v>
+      </c>
+      <c r="D273" t="s">
+        <v>21</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>38</v>
+      </c>
+      <c r="C274" t="s">
+        <v>36</v>
+      </c>
+      <c r="D274" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>21</v>
+      </c>
+      <c r="E275">
+        <v>4</v>
+      </c>
+      <c r="F275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>157</v>
+      </c>
+      <c r="B276" t="s">
+        <v>38</v>
+      </c>
+      <c r="C276" t="s">
+        <v>36</v>
+      </c>
+      <c r="D276" t="s">
+        <v>21</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>170</v>
+      </c>
+      <c r="B277" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>170</v>
+      </c>
+      <c r="B278" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>170</v>
+      </c>
+      <c r="B279" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+      <c r="F279">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>170</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+      <c r="F280">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>170</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>170</v>
+      </c>
+      <c r="B282" t="s">
+        <v>39</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>170</v>
+      </c>
+      <c r="B283" t="s">
+        <v>39</v>
+      </c>
+      <c r="C283" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="F283">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>170</v>
+      </c>
+      <c r="B284" t="s">
+        <v>39</v>
+      </c>
+      <c r="C284" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
+      </c>
+      <c r="F284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>170</v>
+      </c>
+      <c r="B285" t="s">
+        <v>39</v>
+      </c>
+      <c r="C285" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>170</v>
+      </c>
+      <c r="B286" t="s">
+        <v>39</v>
+      </c>
+      <c r="C286" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>170</v>
+      </c>
+      <c r="B287" t="s">
+        <v>39</v>
+      </c>
+      <c r="C287" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+      <c r="F287">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>170</v>
+      </c>
+      <c r="B288" t="s">
+        <v>39</v>
+      </c>
+      <c r="C288" t="s">
+        <v>30</v>
+      </c>
+      <c r="D288" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>170</v>
+      </c>
+      <c r="B289" t="s">
+        <v>39</v>
+      </c>
+      <c r="C289" t="s">
+        <v>24</v>
+      </c>
+      <c r="D289" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>170</v>
+      </c>
+      <c r="B290" t="s">
+        <v>39</v>
+      </c>
+      <c r="C290" t="s">
+        <v>24</v>
+      </c>
+      <c r="D290" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>170</v>
+      </c>
+      <c r="B291" t="s">
+        <v>39</v>
+      </c>
+      <c r="C291" t="s">
+        <v>24</v>
+      </c>
+      <c r="D291" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291">
+        <v>3</v>
+      </c>
+      <c r="F291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>170</v>
+      </c>
+      <c r="B292" t="s">
+        <v>39</v>
+      </c>
+      <c r="C292" t="s">
+        <v>24</v>
+      </c>
+      <c r="D292" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>170</v>
+      </c>
+      <c r="B293" t="s">
+        <v>39</v>
+      </c>
+      <c r="C293" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>170</v>
+      </c>
+      <c r="B294" t="s">
+        <v>39</v>
+      </c>
+      <c r="C294" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>170</v>
+      </c>
+      <c r="B295" t="s">
+        <v>39</v>
+      </c>
+      <c r="C295" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>170</v>
+      </c>
+      <c r="B296" t="s">
+        <v>39</v>
+      </c>
+      <c r="C296" t="s">
+        <v>18</v>
+      </c>
+      <c r="D296" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+      <c r="F296">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>170</v>
+      </c>
+      <c r="B297" t="s">
+        <v>39</v>
+      </c>
+      <c r="C297" t="s">
+        <v>31</v>
+      </c>
+      <c r="D297" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>170</v>
+      </c>
+      <c r="B298" t="s">
+        <v>39</v>
+      </c>
+      <c r="C298" t="s">
+        <v>31</v>
+      </c>
+      <c r="D298" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>170</v>
+      </c>
+      <c r="B299" t="s">
+        <v>39</v>
+      </c>
+      <c r="C299" t="s">
+        <v>31</v>
+      </c>
+      <c r="D299" t="s">
+        <v>19</v>
+      </c>
+      <c r="E299">
+        <v>3</v>
+      </c>
+      <c r="F299">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>170</v>
+      </c>
+      <c r="B300" t="s">
+        <v>39</v>
+      </c>
+      <c r="C300" t="s">
+        <v>31</v>
+      </c>
+      <c r="D300" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>170</v>
+      </c>
+      <c r="B301" t="s">
+        <v>39</v>
+      </c>
+      <c r="C301" t="s">
+        <v>25</v>
+      </c>
+      <c r="D301" t="s">
+        <v>19</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>170</v>
+      </c>
+      <c r="B302" t="s">
+        <v>39</v>
+      </c>
+      <c r="C302" t="s">
+        <v>25</v>
+      </c>
+      <c r="D302" t="s">
+        <v>19</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>170</v>
+      </c>
+      <c r="B303" t="s">
+        <v>39</v>
+      </c>
+      <c r="C303" t="s">
+        <v>25</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>170</v>
+      </c>
+      <c r="B304" t="s">
+        <v>39</v>
+      </c>
+      <c r="C304" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304">
+        <v>4</v>
+      </c>
+      <c r="F304">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>170</v>
+      </c>
+      <c r="B305" t="s">
+        <v>39</v>
+      </c>
+      <c r="C305" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>170</v>
+      </c>
+      <c r="B306" t="s">
+        <v>39</v>
+      </c>
+      <c r="C306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>170</v>
+      </c>
+      <c r="B307" t="s">
+        <v>39</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>170</v>
+      </c>
+      <c r="B308" t="s">
+        <v>39</v>
+      </c>
+      <c r="C308" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" t="s">
+        <v>19</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+      <c r="F308">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>170</v>
+      </c>
+      <c r="B309" t="s">
+        <v>39</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>170</v>
+      </c>
+      <c r="B310" t="s">
+        <v>39</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>19</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>170</v>
+      </c>
+      <c r="B311" t="s">
+        <v>39</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>19</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>170</v>
+      </c>
+      <c r="B312" t="s">
+        <v>39</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>19</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+      <c r="F312">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>170</v>
+      </c>
+      <c r="B313" t="s">
+        <v>39</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>170</v>
+      </c>
+      <c r="B314" t="s">
+        <v>39</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>170</v>
+      </c>
+      <c r="B315" t="s">
+        <v>39</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+      <c r="F315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>170</v>
+      </c>
+      <c r="B316" t="s">
+        <v>39</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>170</v>
+      </c>
+      <c r="B317" t="s">
+        <v>39</v>
+      </c>
+      <c r="C317" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>170</v>
+      </c>
+      <c r="B318" t="s">
+        <v>39</v>
+      </c>
+      <c r="C318" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" t="s">
+        <v>19</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>170</v>
+      </c>
+      <c r="B319" t="s">
+        <v>39</v>
+      </c>
+      <c r="C319" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" t="s">
+        <v>19</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+      <c r="F319">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>170</v>
+      </c>
+      <c r="B320" t="s">
+        <v>39</v>
+      </c>
+      <c r="C320" t="s">
+        <v>17</v>
+      </c>
+      <c r="D320" t="s">
+        <v>19</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+      <c r="F320">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>366</v>
+      </c>
+      <c r="B321" t="s">
+        <v>40</v>
+      </c>
+      <c r="C321" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>366</v>
+      </c>
+      <c r="B322" t="s">
+        <v>40</v>
+      </c>
+      <c r="C322" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" t="s">
+        <v>22</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>366</v>
+      </c>
+      <c r="B323" t="s">
+        <v>40</v>
+      </c>
+      <c r="C323" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" t="s">
+        <v>22</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>366</v>
+      </c>
+      <c r="B324" t="s">
+        <v>40</v>
+      </c>
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
+      </c>
+      <c r="F324">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
